--- a/results/mp/logistic/corona/confidence/126/topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,7 +46,13 @@
     <t>crisis</t>
   </si>
   <si>
-    <t>war</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>sc</t>
@@ -64,106 +70,127 @@
     <t>no</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>special</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>.</t>
+    <t>to</t>
   </si>
 </sst>
 </file>
@@ -521,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +556,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -611,16 +638,16 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +667,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.75</v>
+        <v>0.7568493150684932</v>
       </c>
       <c r="C4">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D4">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +685,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +717,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6052631578947368</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +735,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9152542372881356</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +767,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4285714285714285</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C6">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +809,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +817,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3449612403100775</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C7">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>338</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K7">
         <v>0.8461538461538461</v>
@@ -840,13 +867,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2933333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C8">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8459530026109661</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>324</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>324</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>59</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +917,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1610738255033557</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,19 +935,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>125</v>
+        <v>325</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.839622641509434</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L9">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="M9">
-        <v>89</v>
+        <v>316</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +967,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1277777777777778</v>
+        <v>0.28</v>
       </c>
       <c r="C10">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,19 +985,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>314</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,193 +1017,313 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.005245774237419856</v>
+        <v>0.2013422818791946</v>
       </c>
       <c r="C11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>119</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11">
+        <v>0.79375</v>
+      </c>
+      <c r="L11">
+        <v>127</v>
+      </c>
+      <c r="M11">
+        <v>127</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="C12">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>310</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12">
+        <v>0.7924528301886793</v>
+      </c>
+      <c r="L12">
+        <v>84</v>
+      </c>
+      <c r="M12">
+        <v>84</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>0.07936507936507936</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>232</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13">
+        <v>0.7804878048780488</v>
+      </c>
+      <c r="L13">
+        <v>64</v>
+      </c>
+      <c r="M13">
+        <v>64</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>0.006121134020618557</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+      <c r="D14">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>0.14</v>
+      </c>
+      <c r="F14">
+        <v>0.86</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>3085</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="L14">
+        <v>30</v>
+      </c>
+      <c r="M14">
+        <v>30</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.004023335345001005</v>
+      </c>
+      <c r="C15">
+        <v>20</v>
+      </c>
+      <c r="D15">
         <v>45</v>
       </c>
-      <c r="E11">
-        <v>0.4</v>
-      </c>
-      <c r="F11">
-        <v>0.6</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>5120</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K11">
-        <v>0.7948717948717948</v>
-      </c>
-      <c r="L11">
-        <v>31</v>
-      </c>
-      <c r="M11">
-        <v>31</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
+      <c r="E15">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F15">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>4951</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15">
+        <v>0.7605633802816901</v>
+      </c>
+      <c r="L15">
+        <v>108</v>
+      </c>
+      <c r="M15">
+        <v>108</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.003696498054474708</v>
+      </c>
+      <c r="C16">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <v>44</v>
+      </c>
+      <c r="E16">
+        <v>0.57</v>
+      </c>
+      <c r="F16">
+        <v>0.43</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>5121</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="L16">
+        <v>25</v>
+      </c>
+      <c r="M16">
+        <v>25</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="J12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12">
-        <v>0.7872340425531915</v>
-      </c>
-      <c r="L12">
-        <v>37</v>
-      </c>
-      <c r="M12">
-        <v>37</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="J13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13">
-        <v>0.78125</v>
-      </c>
-      <c r="L13">
-        <v>125</v>
-      </c>
-      <c r="M13">
-        <v>125</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="J14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="L14">
-        <v>45</v>
-      </c>
-      <c r="M14">
-        <v>45</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="J15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15">
-        <v>0.7682926829268293</v>
-      </c>
-      <c r="L15">
-        <v>63</v>
-      </c>
-      <c r="M15">
-        <v>63</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="J16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16">
-        <v>0.765625</v>
-      </c>
-      <c r="L16">
-        <v>98</v>
-      </c>
-      <c r="M16">
-        <v>98</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>30</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K17">
         <v>0.75</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1188,21 +1335,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>0.7464788732394366</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1214,21 +1361,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1240,21 +1387,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>0.7</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L20">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1266,12 +1413,12 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K21">
         <v>0.6984126984126984</v>
@@ -1297,16 +1444,16 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>0.6511627906976745</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1318,21 +1465,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>0.6108786610878661</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L23">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1344,21 +1491,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>93</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>0.5911764705882353</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L24">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="M24">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1370,21 +1517,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>0.5714285714285714</v>
+        <v>0.6067796610169491</v>
       </c>
       <c r="L25">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>179</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1396,21 +1543,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>0.5627118644067797</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L26">
-        <v>166</v>
+        <v>57</v>
       </c>
       <c r="M26">
-        <v>166</v>
+        <v>57</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1422,21 +1569,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>129</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>0.55</v>
+        <v>0.6</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1448,21 +1595,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>0.5428571428571428</v>
+        <v>0.6</v>
       </c>
       <c r="L28">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1474,21 +1621,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>0.5425531914893617</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L29">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="M29">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1500,21 +1647,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>43</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>0.5230769230769231</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1526,21 +1673,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>0.5056179775280899</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L31">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M31">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1552,21 +1699,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>0.282051282051282</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1578,59 +1725,215 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.007129455909943715</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="N33">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>2646</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.004016064257028112</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L34">
+        <v>24</v>
+      </c>
+      <c r="M34">
+        <v>24</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K35">
+        <v>0.3013698630136986</v>
+      </c>
+      <c r="L35">
+        <v>22</v>
+      </c>
+      <c r="M35">
+        <v>22</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K36">
+        <v>0.02003338898163606</v>
+      </c>
+      <c r="L36">
+        <v>24</v>
+      </c>
+      <c r="M36">
+        <v>26</v>
+      </c>
+      <c r="N36">
+        <v>0.92</v>
+      </c>
+      <c r="O36">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37">
+        <v>0.008633633633633633</v>
+      </c>
+      <c r="L37">
+        <v>23</v>
+      </c>
+      <c r="M37">
+        <v>32</v>
+      </c>
+      <c r="N37">
+        <v>0.72</v>
+      </c>
+      <c r="O37">
+        <v>0.28</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38">
+        <v>0.005325306783977773</v>
+      </c>
+      <c r="L38">
+        <v>23</v>
+      </c>
+      <c r="M38">
+        <v>32</v>
+      </c>
+      <c r="N38">
+        <v>0.72</v>
+      </c>
+      <c r="O38">
+        <v>0.28</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M34">
-        <v>36</v>
-      </c>
-      <c r="N34">
+      <c r="K39">
+        <v>0.00502411575562701</v>
+      </c>
+      <c r="L39">
+        <v>25</v>
+      </c>
+      <c r="M39">
+        <v>45</v>
+      </c>
+      <c r="N39">
         <v>0.5600000000000001</v>
       </c>
-      <c r="O34">
+      <c r="O39">
         <v>0.4399999999999999</v>
       </c>
-      <c r="P34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q34">
-        <v>4960</v>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40">
+        <v>0.004858142246404975</v>
+      </c>
+      <c r="L40">
+        <v>25</v>
+      </c>
+      <c r="M40">
+        <v>44</v>
+      </c>
+      <c r="N40">
+        <v>0.57</v>
+      </c>
+      <c r="O40">
+        <v>0.43</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>5121</v>
       </c>
     </row>
   </sheetData>
